--- a/NTD/bin/Debug/.xlsx
+++ b/NTD/bin/Debug/.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$D$8</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -20,31 +20,64 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Ghi Chú</t>
-  </si>
-  <si>
-    <t>Còn Quản Lý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV01      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cái       </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">DV02      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiếc     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV03      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cây       </t>
+    <t>Mô Tả</t>
+  </si>
+  <si>
+    <t>Tên khu vực</t>
+  </si>
+  <si>
+    <t>NCC001</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Miền Bắc</t>
+  </si>
+  <si>
+    <t>NCC002</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>Miền Trung</t>
+  </si>
+  <si>
+    <t>NCC003</t>
+  </si>
+  <si>
+    <t>SamSung</t>
+  </si>
+  <si>
+    <t>NCC004</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Miền Nam</t>
+  </si>
+  <si>
+    <t>NCC005</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>NCC006</t>
+  </si>
+  <si>
+    <t>C?c G?ch</t>
+  </si>
+  <si>
+    <t>ném chó</t>
+  </si>
+  <si>
+    <t>NCC007</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -407,10 +440,10 @@
         <v>5</v>
       </c>
       <c t="s" r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c t="s" r="D2" s="1">
         <v>6</v>
-      </c>
-      <c t="b" r="D2" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -421,30 +454,86 @@
         <v>8</v>
       </c>
       <c t="s" r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c t="b" r="D3" s="1">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c t="s" r="D3" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c t="s" r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="D4" s="1">
         <v>9</v>
       </c>
-      <c t="s" r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c t="s" r="C4" s="1">
+    </row>
+    <row r="5">
+      <c t="s" r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="D5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c t="s" r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="D6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c t="s" r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c t="s" r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="D7" s="1">
         <v>6</v>
       </c>
-      <c t="b" r="D4" s="1">
-        <v>1</v>
+    </row>
+    <row r="8">
+      <c t="s" r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c t="s" r="B8" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="C8" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="D8" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D8"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>